--- a/data/trans_orig/P14B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6263CF74-9B5F-4529-A4BE-F13713CE9624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37539AF6-3637-44A5-A980-7CD7C6F1B97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{72F22DDD-8EA0-4328-9805-87C2F7711A44}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77B7A7CB-453F-4C9F-9C16-59E46BDB995B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="273">
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -118,16 +118,16 @@
     <t>79,2%</t>
   </si>
   <si>
-    <t>19,38%</t>
+    <t>19,34%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
   </si>
   <si>
     <t>37,54%</t>
@@ -139,16 +139,16 @@
     <t>20,8%</t>
   </si>
   <si>
-    <t>80,62%</t>
+    <t>80,66%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -166,7 +166,7 @@
     <t>84,92%</t>
   </si>
   <si>
-    <t>40,78%</t>
+    <t>41,1%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -181,7 +181,7 @@
     <t>15,08%</t>
   </si>
   <si>
-    <t>59,22%</t>
+    <t>58,9%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -190,49 +190,49 @@
     <t>49,63%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>54,51%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
   </si>
   <si>
     <t>50,37%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>45,49%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -241,10 +241,10 @@
     <t>88,25%</t>
   </si>
   <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>90,03%</t>
@@ -256,19 +256,19 @@
     <t>88,83%</t>
   </si>
   <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>9,97%</t>
@@ -280,64 +280,64 @@
     <t>11,17%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>78,39%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>78,21%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -358,7 +358,7 @@
     <t>59,25%</t>
   </si>
   <si>
-    <t>18,63%</t>
+    <t>18,92%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -367,7 +367,7 @@
     <t>40,75%</t>
   </si>
   <si>
-    <t>81,37%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>29,04%</t>
@@ -379,7 +379,7 @@
     <t>67,54%</t>
   </si>
   <si>
-    <t>24,59%</t>
+    <t>24,89%</t>
   </si>
   <si>
     <t>70,96%</t>
@@ -391,13 +391,13 @@
     <t>32,46%</t>
   </si>
   <si>
-    <t>75,41%</t>
+    <t>75,11%</t>
   </si>
   <si>
     <t>84,68%</t>
   </si>
   <si>
-    <t>40,13%</t>
+    <t>54,06%</t>
   </si>
   <si>
     <t>47,52%</t>
@@ -406,16 +406,16 @@
     <t>71,52%</t>
   </si>
   <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>59,87%</t>
+    <t>45,94%</t>
   </si>
   <si>
     <t>52,48%</t>
@@ -424,67 +424,67 @@
     <t>28,48%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
   </si>
   <si>
     <t>63,15%</t>
   </si>
   <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>67,14%</t>
   </si>
   <si>
-    <t>16,69%</t>
+    <t>16,87%</t>
   </si>
   <si>
     <t>64,15%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
   </si>
   <si>
     <t>32,86%</t>
   </si>
   <si>
-    <t>83,31%</t>
+    <t>83,13%</t>
   </si>
   <si>
     <t>35,85%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>92,72%</t>
@@ -496,19 +496,19 @@
     <t>83,43%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>7,28%</t>
@@ -520,64 +520,64 @@
     <t>16,57%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
   </si>
   <si>
     <t>86,03%</t>
   </si>
   <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>75,87%</t>
   </si>
   <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>31,09%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
   </si>
   <si>
     <t>24,13%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
   </si>
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
@@ -598,10 +598,10 @@
     <t>45,74%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>52,0%</t>
@@ -613,10 +613,10 @@
     <t>54,26%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>51,73%</t>
@@ -631,6 +631,9 @@
     <t>60,34%</t>
   </si>
   <si>
+    <t>14,54%</t>
+  </si>
+  <si>
     <t>90,74%</t>
   </si>
   <si>
@@ -649,220 +652,211 @@
     <t>9,26%</t>
   </si>
   <si>
+    <t>85,46%</t>
+  </si>
+  <si>
     <t>63,45%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>86,62%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
+    <t>13,38%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
   </si>
   <si>
     <t>34,73%</t>
   </si>
   <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>65,59%</t>
   </si>
   <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>46,96%</t>
   </si>
   <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
   </si>
   <si>
     <t>56,61%</t>
   </si>
   <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>34,41%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
   </si>
   <si>
     <t>53,04%</t>
   </si>
   <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>43,39%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>62,32%</t>
   </si>
   <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
   </si>
   <si>
     <t>59,84%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
   </si>
   <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
   </si>
   <si>
     <t>40,16%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
   </si>
   <si>
     <t>38,88%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
   </si>
   <si>
     <t>62,48%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
   </si>
   <si>
     <t>58,86%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
   </si>
   <si>
     <t>60,59%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
+    <t>66,94%</t>
   </si>
   <si>
     <t>37,52%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
   </si>
   <si>
     <t>41,14%</t>
   </si>
   <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>39,41%</t>
   </si>
   <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
+    <t>33,06%</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB25ABD6-B088-47D4-93B8-7E3CC81F1A2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06556859-F864-4766-8B4A-B1EEE6C87043}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2475,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46106A8-8087-417F-AF10-6216CC09EC29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B393DD-11CF-4DB7-B8C8-71AF1AE194D1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3550,7 +3544,7 @@
         <v>80</v>
       </c>
       <c r="N22" s="7">
-        <v>84971</v>
+        <v>84972</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>168</v>
@@ -3652,7 +3646,7 @@
         <v>107</v>
       </c>
       <c r="N24" s="7">
-        <v>111999</v>
+        <v>112000</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3688,7 +3682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AC6616-A2ED-460F-A7F4-EE7671BEE010}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A6E0D5-5349-44F0-8387-C2FBF3FF7549}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4149,10 +4143,10 @@
         <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,7 +4161,7 @@
         <v>1227</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
@@ -4182,13 +4176,13 @@
         <v>1187</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4197,13 +4191,13 @@
         <v>2415</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4265,13 @@
         <v>8459</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4286,13 +4280,13 @@
         <v>8532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4301,13 +4295,13 @@
         <v>16992</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4316,13 @@
         <v>4874</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4769,10 +4763,10 @@
         <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4781,13 @@
         <v>33351</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -4802,13 +4796,13 @@
         <v>39694</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>107</v>
@@ -4817,13 +4811,13 @@
         <v>73045</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>273</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B08-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37539AF6-3637-44A5-A980-7CD7C6F1B97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{390F42DB-817B-4C52-BD6B-E3A7883F1DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77B7A7CB-453F-4C9F-9C16-59E46BDB995B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8656F9D9-D706-4D4E-92FF-017F4B2D4739}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="275">
   <si>
     <t>Población cuya enfermedad crónica de pulmón le limita en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -112,43 +112,37 @@
     <t>62,46%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
     <t>79,2%</t>
   </si>
   <si>
-    <t>19,34%</t>
+    <t>19,39%</t>
   </si>
   <si>
     <t>70,72%</t>
   </si>
   <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>37,54%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
     <t>20,8%</t>
   </si>
   <si>
-    <t>80,66%</t>
+    <t>80,61%</t>
   </si>
   <si>
     <t>29,28%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -166,7 +160,7 @@
     <t>84,92%</t>
   </si>
   <si>
-    <t>41,1%</t>
+    <t>41,11%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -181,7 +175,7 @@
     <t>15,08%</t>
   </si>
   <si>
-    <t>58,9%</t>
+    <t>58,89%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -190,49 +184,49 @@
     <t>49,63%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>54,51%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
   </si>
   <si>
     <t>50,37%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
   <si>
     <t>45,49%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -241,622 +235,634 @@
     <t>88,25%</t>
   </si>
   <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>90,03%</t>
   </si>
   <si>
-    <t>69,94%</t>
+    <t>69,96%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
   </si>
   <si>
     <t>9,97%</t>
   </si>
   <si>
-    <t>30,06%</t>
+    <t>30,04%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>78,39%</t>
   </si>
   <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya enfermedad crónica de pulmón le limita en 2016 (Tasa respuesta: 1,63%)</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya enfermedad crónica de pulmón le limita en 2015 (Tasa respuesta: 1,63%)</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
   </si>
   <si>
     <t>54,06%</t>
   </si>
   <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>45,94%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>Población cuya enfermedad crónica de pulmón le limita en 2023 (Tasa respuesta: 3,09%)</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06556859-F864-4766-8B4A-B1EEE6C87043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91E20C0-4ED6-4363-A0F7-A00294AAA111}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1687,7 +1693,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
@@ -1699,10 +1705,10 @@
         <v>3761</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>17</v>
@@ -1714,13 +1720,13 @@
         <v>6808</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1735,13 +1741,13 @@
         <v>1831</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1750,13 +1756,13 @@
         <v>988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1765,13 +1771,13 @@
         <v>2819</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,7 +1833,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1842,7 +1848,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>19</v>
@@ -1854,10 +1860,10 @@
         <v>3082</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>17</v>
@@ -1869,10 +1875,10 @@
         <v>10458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>17</v>
@@ -1896,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1905,13 +1911,13 @@
         <v>1857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1920,13 +1926,13 @@
         <v>1857</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,7 +1988,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1994,13 +2000,13 @@
         <v>7556</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2009,13 +2015,13 @@
         <v>5012</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2027,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,13 +2051,13 @@
         <v>7670</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2060,13 +2066,13 @@
         <v>4182</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -2078,10 +2084,10 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,7 +2143,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2149,13 +2155,13 @@
         <v>38937</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -2164,10 +2170,10 @@
         <v>19389</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>17</v>
@@ -2179,13 +2185,13 @@
         <v>58327</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2206,13 @@
         <v>5183</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2215,13 +2221,13 @@
         <v>2148</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2230,13 +2236,13 @@
         <v>7331</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2310,13 @@
         <v>56915</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -2319,13 +2325,13 @@
         <v>32309</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -2334,13 +2340,13 @@
         <v>89225</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2361,13 @@
         <v>15688</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2370,13 +2376,13 @@
         <v>9175</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -2385,13 +2391,13 @@
         <v>24862</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2453,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B393DD-11CF-4DB7-B8C8-71AF1AE194D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C44CD6-8ED4-48FB-B88D-8EE1129467B4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2486,7 +2492,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2596,7 +2602,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -2624,7 +2630,7 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>19</v>
@@ -2648,7 +2654,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2676,7 +2682,7 @@
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,7 +2754,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2760,7 +2766,7 @@
         <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>19</v>
@@ -2772,10 +2778,10 @@
         <v>2895</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>17</v>
@@ -2796,7 +2802,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2814,7 +2820,7 @@
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2823,13 +2829,13 @@
         <v>1991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2903,7 @@
         <v>930</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
@@ -2915,7 +2921,7 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>19</v>
@@ -2927,10 +2933,10 @@
         <v>4729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>17</v>
@@ -2948,7 +2954,7 @@
         <v>2273</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
@@ -2969,7 +2975,7 @@
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2978,13 +2984,13 @@
         <v>2273</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,7 +3046,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3052,10 +3058,10 @@
         <v>6219</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>17</v>
@@ -3067,7 +3073,7 @@
         <v>1913</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>14</v>
@@ -3082,13 +3088,13 @@
         <v>8132</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3109,13 @@
         <v>1125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3118,7 +3124,7 @@
         <v>2112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
@@ -3133,13 +3139,13 @@
         <v>3237</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3201,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3207,13 +3213,13 @@
         <v>12626</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3222,10 +3228,10 @@
         <v>4492</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>17</v>
@@ -3237,13 +3243,13 @@
         <v>17119</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3264,13 @@
         <v>7367</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3273,13 +3279,13 @@
         <v>2199</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3288,13 +3294,13 @@
         <v>9566</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,7 +3356,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3362,13 +3368,13 @@
         <v>24081</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -3377,10 +3383,10 @@
         <v>26061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>17</v>
@@ -3392,13 +3398,13 @@
         <v>50143</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3419,13 @@
         <v>7913</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3428,13 +3434,13 @@
         <v>2048</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -3443,13 +3449,13 @@
         <v>9961</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3523,13 @@
         <v>45810</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -3532,28 +3538,28 @@
         <v>39160</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
       </c>
       <c r="N22" s="7">
-        <v>84972</v>
+        <v>84971</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3574,13 @@
         <v>20670</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3583,13 +3589,13 @@
         <v>6359</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -3598,13 +3604,13 @@
         <v>27028</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,7 +3652,7 @@
         <v>107</v>
       </c>
       <c r="N24" s="7">
-        <v>112000</v>
+        <v>111999</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -3660,7 +3666,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +3688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A6E0D5-5349-44F0-8387-C2FBF3FF7549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E836E7-D176-48AF-A58D-2413566032D0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3699,7 +3705,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3819,7 +3825,7 @@
         <v>6318</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -3834,7 +3840,7 @@
         <v>6318</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
@@ -3868,7 +3874,7 @@
         <v>2783</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>14</v>
@@ -3883,7 +3889,7 @@
         <v>2783</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>14</v>
@@ -3955,7 +3961,7 @@
         <v>1192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
@@ -3970,7 +3976,7 @@
         <v>2164</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>14</v>
@@ -3985,13 +3991,13 @@
         <v>3356</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,7 +4012,7 @@
         <v>1292</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
@@ -4021,7 +4027,7 @@
         <v>2690</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>14</v>
@@ -4036,13 +4042,13 @@
         <v>3982</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,7 +4116,7 @@
         <v>1316</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
@@ -4125,10 +4131,10 @@
         <v>2359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>17</v>
@@ -4140,13 +4146,13 @@
         <v>3674</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,7 +4167,7 @@
         <v>1227</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>14</v>
@@ -4176,13 +4182,13 @@
         <v>1187</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4191,13 +4197,13 @@
         <v>2415</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,7 +4259,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4265,13 +4271,13 @@
         <v>8459</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4280,13 +4286,13 @@
         <v>8532</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -4295,13 +4301,13 @@
         <v>16992</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4322,13 @@
         <v>4874</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4408,7 +4414,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4563,7 +4569,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4763,10 +4769,10 @@
         <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4787,13 @@
         <v>33351</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -4796,13 +4802,13 @@
         <v>39694</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>107</v>
@@ -4811,13 +4817,13 @@
         <v>73045</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4879,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
